--- a/htdocs/App/Controllers/Traspasos/IB6898DP.xlsx
+++ b/htdocs/App/Controllers/Traspasos/IB6898DP.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>29-12-2017</t>
+    <t>28-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -76,7 +76,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>Sin confirmar</t>
+    <t>mr-marcos@hotmail.com</t>
   </si>
   <si>
     <t>Tramitación Transferencia………………..</t>
@@ -91,10 +91,10 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>MARCELO ROBERTO</t>
-  </si>
-  <si>
-    <t>No disponible</t>
+    <t>Juan Salva</t>
+  </si>
+  <si>
+    <t>juansalva1979@gmail.com</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1383,7 +1383,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>58</v>
+        <v>70.4</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>12</v>
@@ -1459,7 +1459,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="44">
-        <v>42</v>
+        <v>79.6</v>
       </c>
       <c r="Z18" s="14" t="s">
         <v>12</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>600328796</v>
+        <v>645769817</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
